--- a/RodriguesDaudt_etal_SDM_SWAO_Table_S2.xlsx
+++ b/RodriguesDaudt_etal_SDM_SWAO_Table_S2.xlsx
@@ -856,25 +856,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1201,22 +1201,23 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
     <col min="11" max="11" width="12.21875" customWidth="1"/>
     <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" customWidth="1"/>
-    <col min="15" max="15" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -4371,5 +4372,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>